--- a/IPC2024_base2010/indprod032024.xlsx
+++ b/IPC2024_base2010/indprod032024.xlsx
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>142.7247084862794</v>
+        <v>142.5663181041921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>189.238563936172</v>
+        <v>189.3683475818477</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>197.2245524741947</v>
+        <v>197.2993580657576</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>146.7715590815997</v>
+        <v>147.0941073490704</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1370,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>159.1946127446645</v>
+        <v>159.0158599734742</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>153.178592328627</v>
+        <v>153.43540182041</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>150.3834470466217</v>
+        <v>150.4004024131162</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>220.5354098228449</v>
+        <v>361.0512740607086</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>34</v>
       </c>
       <c r="D24">
-        <v>439.3283735166446</v>
+        <v>440.3941256372258</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1608,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>2125.707918855321</v>
+        <v>2149.054265718385</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>504.1617692679506</v>
+        <v>503.9145213458932</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1650,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="D29">
-        <v>170.5740634892911</v>
+        <v>202.7018195133775</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1664,7 +1664,7 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>619.6887349609722</v>
+        <v>623.8790022466087</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>858.0797196051332</v>
+        <v>854.7321347486061</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>711.7288179258006</v>
+        <v>706.8914153781478</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>547.3262301229419</v>
+        <v>548.0990638565543</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <v>165.9361231151756</v>
+        <v>165.9466467148137</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2140,7 +2140,7 @@
         <v>74</v>
       </c>
       <c r="D64">
-        <v>180.2145462125299</v>
+        <v>180.0597719282672</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>149.7711456306113</v>
+        <v>147.2822920232809</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2350,7 +2350,7 @@
         <v>89</v>
       </c>
       <c r="D79">
-        <v>112.6483578819488</v>
+        <v>112.7517767888421</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>103</v>
       </c>
       <c r="D93">
-        <v>124.8404084357686</v>
+        <v>124.8345093493227</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2602,7 +2602,7 @@
         <v>107</v>
       </c>
       <c r="D97">
-        <v>124.1127424017498</v>
+        <v>123.9307517809397</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2728,7 +2728,7 @@
         <v>116</v>
       </c>
       <c r="D106">
-        <v>117.6318620872634</v>
+        <v>117.6059576684585</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3512,7 +3512,7 @@
         <v>172</v>
       </c>
       <c r="D162">
-        <v>157.6726258908989</v>
+        <v>157.5750097365983</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3624,7 +3624,7 @@
         <v>180</v>
       </c>
       <c r="D170">
-        <v>122.8757651623458</v>
+        <v>122.8012389070454</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4016,7 +4016,7 @@
         <v>208</v>
       </c>
       <c r="D198">
-        <v>1297.701092248453</v>
+        <v>970.488244444918</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>122.3509313247507</v>
+        <v>122.1590971867133</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5094,7 +5094,7 @@
         <v>285</v>
       </c>
       <c r="D275">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5220,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="D284">
-        <v>152.9484882736539</v>
+        <v>152.1448911876852</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.0744153794895</v>
+        <v>173.4464364156198</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5248,7 +5248,7 @@
         <v>17</v>
       </c>
       <c r="D286">
-        <v>242.3843352730846</v>
+        <v>241.6066876175627</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5262,7 +5262,7 @@
         <v>18</v>
       </c>
       <c r="D287">
-        <v>151.8075968984684</v>
+        <v>152.3569151730087</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5276,7 +5276,7 @@
         <v>19</v>
       </c>
       <c r="D288">
-        <v>188.2447653783319</v>
+        <v>187.6222888097446</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>145.2494474926477</v>
+        <v>144.1290279320484</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>338.6100174823756</v>
+        <v>337.515353751729</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5696,7 +5696,7 @@
         <v>49</v>
       </c>
       <c r="D318">
-        <v>440.116904081535</v>
+        <v>430.4361050654678</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5850,7 +5850,7 @@
         <v>60</v>
       </c>
       <c r="D329">
-        <v>152.2915531322994</v>
+        <v>153.3232924461458</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6200,7 +6200,7 @@
         <v>85</v>
       </c>
       <c r="D354">
-        <v>191.2916412694214</v>
+        <v>186.6499444198398</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6256,7 +6256,7 @@
         <v>89</v>
       </c>
       <c r="D358">
-        <v>114.8685268093406</v>
+        <v>115.1624439132433</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6634,7 +6634,7 @@
         <v>116</v>
       </c>
       <c r="D385">
-        <v>121.5932583835662</v>
+        <v>121.5542532407553</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7922,7 +7922,7 @@
         <v>208</v>
       </c>
       <c r="D477">
-        <v>1305.28945304567</v>
+        <v>976.1632145842638</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>121.3952076675541</v>
+        <v>121.1143442581525</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -9000,7 +9000,7 @@
         <v>285</v>
       </c>
       <c r="D554">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -9126,7 +9126,7 @@
         <v>15</v>
       </c>
       <c r="D563">
-        <v>128.6314045744186</v>
+        <v>128.6445408017903</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>235.5920603271</v>
+        <v>235.6708199884639</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9154,7 +9154,7 @@
         <v>17</v>
       </c>
       <c r="D565">
-        <v>188.5267447760452</v>
+        <v>188.5780448135364</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -9168,7 +9168,7 @@
         <v>18</v>
       </c>
       <c r="D566">
-        <v>136.96833008584</v>
+        <v>137.019439006189</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>152.4776445281124</v>
+        <v>158.0839866230488</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9420,7 +9420,7 @@
         <v>36</v>
       </c>
       <c r="D584">
-        <v>9427.81538538526</v>
+        <v>9812.828804754279</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>652.7417525805986</v>
+        <v>655.5765073176781</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9756,7 +9756,7 @@
         <v>60</v>
       </c>
       <c r="D608">
-        <v>173.1618569198409</v>
+        <v>173.4521967079889</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -10106,7 +10106,7 @@
         <v>85</v>
       </c>
       <c r="D633">
-        <v>128.9530340581301</v>
+        <v>129.6559293031068</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -11828,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="D756">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -12906,7 +12906,7 @@
         <v>285</v>
       </c>
       <c r="D833">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -13032,7 +13032,7 @@
         <v>15</v>
       </c>
       <c r="D842">
-        <v>147.3438418610973</v>
+        <v>146.8572622472584</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>197.3817073841138</v>
+        <v>197.5455831197665</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13060,7 +13060,7 @@
         <v>17</v>
       </c>
       <c r="D844">
-        <v>170.6292567505923</v>
+        <v>170.8438557997864</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>156.5726955716329</v>
+        <v>157.2945740048575</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13368,7 +13368,7 @@
         <v>39</v>
       </c>
       <c r="D866">
-        <v>131.9166615512248</v>
+        <v>413.0712547918031</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -13662,7 +13662,7 @@
         <v>60</v>
       </c>
       <c r="D887">
-        <v>171.8363141722754</v>
+        <v>171.7072075946189</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -13858,7 +13858,7 @@
         <v>74</v>
       </c>
       <c r="D901">
-        <v>210.1350369599487</v>
+        <v>207.9511114581497</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -14012,7 +14012,7 @@
         <v>85</v>
       </c>
       <c r="D912">
-        <v>140.3723686625317</v>
+        <v>137.0187806784219</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -14446,7 +14446,7 @@
         <v>116</v>
       </c>
       <c r="D943">
-        <v>141.9736256619571</v>
+        <v>141.2595035822159</v>
       </c>
     </row>
     <row r="944" spans="1:4">
@@ -15734,7 +15734,7 @@
         <v>208</v>
       </c>
       <c r="D1035">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -16812,7 +16812,7 @@
         <v>285</v>
       </c>
       <c r="D1112">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -16938,7 +16938,7 @@
         <v>15</v>
       </c>
       <c r="D1121">
-        <v>178.642299838244</v>
+        <v>178.7967563239201</v>
       </c>
     </row>
     <row r="1122" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>266.4772459871141</v>
+        <v>266.6806634910677</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -16966,7 +16966,7 @@
         <v>17</v>
       </c>
       <c r="D1123">
-        <v>191.6649415889246</v>
+        <v>193.9728210463921</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -16980,7 +16980,7 @@
         <v>18</v>
       </c>
       <c r="D1124">
-        <v>153.1405538588177</v>
+        <v>154.2143353628075</v>
       </c>
     </row>
     <row r="1125" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>188.2044195508937</v>
+        <v>188.2634515308025</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17106,7 +17106,7 @@
         <v>27</v>
       </c>
       <c r="D1133">
-        <v>138.7999134700817</v>
+        <v>138.8696061559198</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>399.6818835985245</v>
+        <v>1185.938031833411</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17568,7 +17568,7 @@
         <v>60</v>
       </c>
       <c r="D1166">
-        <v>192.9329582093735</v>
+        <v>192.3842815518214</v>
       </c>
     </row>
     <row r="1167" spans="1:4">
@@ -17918,7 +17918,7 @@
         <v>85</v>
       </c>
       <c r="D1191">
-        <v>142.3791668657193</v>
+        <v>138.0136287736468</v>
       </c>
     </row>
     <row r="1192" spans="1:4">
@@ -18352,7 +18352,7 @@
         <v>116</v>
       </c>
       <c r="D1222">
-        <v>133.2753083652807</v>
+        <v>132.8683617648529</v>
       </c>
     </row>
     <row r="1223" spans="1:4">
@@ -19640,7 +19640,7 @@
         <v>208</v>
       </c>
       <c r="D1314">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -20718,7 +20718,7 @@
         <v>285</v>
       </c>
       <c r="D1391">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="1392" spans="1:4">
@@ -20844,7 +20844,7 @@
         <v>15</v>
       </c>
       <c r="D1400">
-        <v>156.5501146953233</v>
+        <v>156.7679617369895</v>
       </c>
     </row>
     <row r="1401" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>214.0743231899885</v>
+        <v>214.7396154780673</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20872,7 +20872,7 @@
         <v>17</v>
       </c>
       <c r="D1402">
-        <v>158.4536599748139</v>
+        <v>157.4288977074993</v>
       </c>
     </row>
     <row r="1403" spans="1:4">
@@ -20886,7 +20886,7 @@
         <v>18</v>
       </c>
       <c r="D1403">
-        <v>143.8973833889282</v>
+        <v>143.8797483200794</v>
       </c>
     </row>
     <row r="1404" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>147.2117040387336</v>
+        <v>146.8974728514659</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21012,7 +21012,7 @@
         <v>27</v>
       </c>
       <c r="D1412">
-        <v>163.944572682573</v>
+        <v>164.1019107758368</v>
       </c>
     </row>
     <row r="1413" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>184.6907832402622</v>
+        <v>181.5682141657386</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21306,7 +21306,7 @@
         <v>48</v>
       </c>
       <c r="D1433">
-        <v>823.1813346247903</v>
+        <v>796.3509543422801</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -21320,7 +21320,7 @@
         <v>49</v>
       </c>
       <c r="D1434">
-        <v>1137.584047378782</v>
+        <v>1098.561286220951</v>
       </c>
     </row>
     <row r="1435" spans="1:4">
@@ -21474,7 +21474,7 @@
         <v>60</v>
       </c>
       <c r="D1445">
-        <v>151.1447075527915</v>
+        <v>150.788534441407</v>
       </c>
     </row>
     <row r="1446" spans="1:4">
@@ -21824,7 +21824,7 @@
         <v>85</v>
       </c>
       <c r="D1470">
-        <v>130.2863028422856</v>
+        <v>129.0605148158653</v>
       </c>
     </row>
     <row r="1471" spans="1:4">
@@ -22076,7 +22076,7 @@
         <v>103</v>
       </c>
       <c r="D1488">
-        <v>111.38052560733</v>
+        <v>111.3102011407975</v>
       </c>
     </row>
     <row r="1489" spans="1:4">
@@ -22132,7 +22132,7 @@
         <v>107</v>
       </c>
       <c r="D1492">
-        <v>163.0791043322272</v>
+        <v>161.0047696996079</v>
       </c>
     </row>
     <row r="1493" spans="1:4">
@@ -23154,7 +23154,7 @@
         <v>180</v>
       </c>
       <c r="D1565">
-        <v>139.0709274080522</v>
+        <v>138.2513518776415</v>
       </c>
     </row>
     <row r="1566" spans="1:4">
@@ -23546,7 +23546,7 @@
         <v>208</v>
       </c>
       <c r="D1593">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -24624,7 +24624,7 @@
         <v>285</v>
       </c>
       <c r="D1670">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="1671" spans="1:4">
@@ -24750,7 +24750,7 @@
         <v>15</v>
       </c>
       <c r="D1679">
-        <v>127.8226082513327</v>
+        <v>127.7985771341143</v>
       </c>
     </row>
     <row r="1680" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>164.3895166469622</v>
+        <v>164.3272468152353</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>17</v>
       </c>
       <c r="D1681">
-        <v>174.7840359629474</v>
+        <v>174.3371939640004</v>
       </c>
     </row>
     <row r="1682" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>18</v>
       </c>
       <c r="D1682">
-        <v>143.564229144735</v>
+        <v>143.3598439610499</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>148.758760666105</v>
+        <v>147.81993863752</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -25380,7 +25380,7 @@
         <v>60</v>
       </c>
       <c r="D1724">
-        <v>162.9889600724609</v>
+        <v>162.9553751478579</v>
       </c>
     </row>
     <row r="1725" spans="1:4">
@@ -25730,7 +25730,7 @@
         <v>85</v>
       </c>
       <c r="D1749">
-        <v>133.4837750871872</v>
+        <v>133.0700377683644</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -26164,7 +26164,7 @@
         <v>116</v>
       </c>
       <c r="D1780">
-        <v>107.6867105831303</v>
+        <v>107.9900368236508</v>
       </c>
     </row>
     <row r="1781" spans="1:4">
@@ -26948,7 +26948,7 @@
         <v>172</v>
       </c>
       <c r="D1836">
-        <v>129.438928766789</v>
+        <v>128.9383370339383</v>
       </c>
     </row>
     <row r="1837" spans="1:4">
@@ -27452,7 +27452,7 @@
         <v>208</v>
       </c>
       <c r="D1872">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>128.1687061734939</v>
+        <v>127.906274935207</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -28530,7 +28530,7 @@
         <v>285</v>
       </c>
       <c r="D1949">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="1950" spans="1:4">
@@ -28656,7 +28656,7 @@
         <v>15</v>
       </c>
       <c r="D1958">
-        <v>128.5086963960345</v>
+        <v>128.5129187136492</v>
       </c>
     </row>
     <row r="1959" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>172.861608358381</v>
+        <v>171.5628110962766</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28684,7 +28684,7 @@
         <v>17</v>
       </c>
       <c r="D1960">
-        <v>214.2839840953729</v>
+        <v>216.0924294024635</v>
       </c>
     </row>
     <row r="1961" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>169.8577801015391</v>
+        <v>169.455214415461</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -29006,7 +29006,7 @@
         <v>40</v>
       </c>
       <c r="D1983">
-        <v>876.9841841475896</v>
+        <v>906.0680833446565</v>
       </c>
     </row>
     <row r="1984" spans="1:4">
@@ -29286,7 +29286,7 @@
         <v>60</v>
       </c>
       <c r="D2003">
-        <v>167.4268008080584</v>
+        <v>167.6222311936513</v>
       </c>
     </row>
     <row r="2004" spans="1:4">
@@ -29636,7 +29636,7 @@
         <v>85</v>
       </c>
       <c r="D2028">
-        <v>183.5734404590303</v>
+        <v>181.1999934042526</v>
       </c>
     </row>
     <row r="2029" spans="1:4">
@@ -31358,7 +31358,7 @@
         <v>208</v>
       </c>
       <c r="D2151">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -32436,7 +32436,7 @@
         <v>285</v>
       </c>
       <c r="D2228">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="2229" spans="1:4">
@@ -32562,7 +32562,7 @@
         <v>15</v>
       </c>
       <c r="D2237">
-        <v>154.0114467309079</v>
+        <v>154.0069277633455</v>
       </c>
     </row>
     <row r="2238" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>172.8851506035571</v>
+        <v>170.9728674151272</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32590,7 +32590,7 @@
         <v>17</v>
       </c>
       <c r="D2239">
-        <v>135.5039580190308</v>
+        <v>135.8714362190105</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>152.4039454978548</v>
+        <v>166.1829630265292</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32828,7 +32828,7 @@
         <v>34</v>
       </c>
       <c r="D2256">
-        <v>489.6696785903454</v>
+        <v>527.6555810778766</v>
       </c>
     </row>
     <row r="2257" spans="1:4">
@@ -33080,7 +33080,7 @@
         <v>52</v>
       </c>
       <c r="D2274">
-        <v>405.351144755517</v>
+        <v>428.6116919906393</v>
       </c>
     </row>
     <row r="2275" spans="1:4">
@@ -33192,7 +33192,7 @@
         <v>60</v>
       </c>
       <c r="D2282">
-        <v>179.2861758983155</v>
+        <v>177.4126488281649</v>
       </c>
     </row>
     <row r="2283" spans="1:4">
@@ -33542,7 +33542,7 @@
         <v>85</v>
       </c>
       <c r="D2307">
-        <v>121.9251509753221</v>
+        <v>120.7272617525961</v>
       </c>
     </row>
     <row r="2308" spans="1:4">
@@ -35264,7 +35264,7 @@
         <v>208</v>
       </c>
       <c r="D2430">
-        <v>1281.001565769723</v>
+        <v>957.9994716202581</v>
       </c>
     </row>
     <row r="2431" spans="1:4">
@@ -36342,7 +36342,7 @@
         <v>285</v>
       </c>
       <c r="D2507">
-        <v>100.0048830237154</v>
+        <v>105.4953471897233</v>
       </c>
     </row>
     <row r="2508" spans="1:4">
